--- a/data/pca/factorExposure/factorExposure_2009-10-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01175237101171915</v>
+        <v>0.01690241042910555</v>
       </c>
       <c r="C2">
-        <v>0.001583809802991945</v>
+        <v>0.0009468991654223642</v>
       </c>
       <c r="D2">
-        <v>-0.007097826079442092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008771029810379024</v>
+      </c>
+      <c r="E2">
+        <v>0.001827381035078242</v>
+      </c>
+      <c r="F2">
+        <v>-0.0123531442176372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1108866202577301</v>
+        <v>0.09363280151777348</v>
       </c>
       <c r="C4">
-        <v>0.008905018641269219</v>
+        <v>0.01458141399317541</v>
       </c>
       <c r="D4">
-        <v>-0.05535940140970396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08450866248235847</v>
+      </c>
+      <c r="E4">
+        <v>0.02993798006915237</v>
+      </c>
+      <c r="F4">
+        <v>0.03182955212242829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1399215773786862</v>
+        <v>0.1587085989062842</v>
       </c>
       <c r="C6">
-        <v>0.01464941908848711</v>
+        <v>0.02611885905976354</v>
       </c>
       <c r="D6">
-        <v>0.02639704801427373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02266819818724604</v>
+      </c>
+      <c r="E6">
+        <v>0.01017097646045909</v>
+      </c>
+      <c r="F6">
+        <v>0.0446393700202048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07556924224001693</v>
+        <v>0.0635254811557829</v>
       </c>
       <c r="C7">
-        <v>-0.005751341044691883</v>
+        <v>-0.001811243548158507</v>
       </c>
       <c r="D7">
-        <v>-0.03489735199525146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05280528365384281</v>
+      </c>
+      <c r="E7">
+        <v>0.01136312730800735</v>
+      </c>
+      <c r="F7">
+        <v>0.04740464323620856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06599295368553985</v>
+        <v>0.0571966053569964</v>
       </c>
       <c r="C8">
-        <v>-0.01600495535246619</v>
+        <v>-0.01352609793022281</v>
       </c>
       <c r="D8">
-        <v>-0.003643524947310288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03314553799172963</v>
+      </c>
+      <c r="E8">
+        <v>0.01787004772409174</v>
+      </c>
+      <c r="F8">
+        <v>-0.02734782318833931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08837281442999435</v>
+        <v>0.07100475675440794</v>
       </c>
       <c r="C9">
-        <v>0.008093276994647161</v>
+        <v>0.01022300466640057</v>
       </c>
       <c r="D9">
-        <v>-0.05451736594784027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.086832678193692</v>
+      </c>
+      <c r="E9">
+        <v>0.02359321843463674</v>
+      </c>
+      <c r="F9">
+        <v>0.04819599748270949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06603492211792625</v>
+        <v>0.09281617767086028</v>
       </c>
       <c r="C10">
-        <v>0.005613938039320619</v>
+        <v>0.02117622867077162</v>
       </c>
       <c r="D10">
-        <v>0.1490419907973073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1667339951517261</v>
+      </c>
+      <c r="E10">
+        <v>-0.03441828898949418</v>
+      </c>
+      <c r="F10">
+        <v>-0.05468529487395869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09663301225445217</v>
+        <v>0.08799062243303334</v>
       </c>
       <c r="C11">
-        <v>0.007803256806525895</v>
+        <v>0.01024344019585571</v>
       </c>
       <c r="D11">
-        <v>-0.08656697451765216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1169045250621231</v>
+      </c>
+      <c r="E11">
+        <v>0.046358089550163</v>
+      </c>
+      <c r="F11">
+        <v>0.02258167337000658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1035823474276606</v>
+        <v>0.09193617434810353</v>
       </c>
       <c r="C12">
-        <v>0.006076590043809055</v>
+        <v>0.007602549378139135</v>
       </c>
       <c r="D12">
-        <v>-0.08615011564921871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1318591115716158</v>
+      </c>
+      <c r="E12">
+        <v>0.04709276937649404</v>
+      </c>
+      <c r="F12">
+        <v>0.02820450728903402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04663371787834891</v>
+        <v>0.04196438497123896</v>
       </c>
       <c r="C13">
-        <v>0.0018810105979216</v>
+        <v>0.002578206463261126</v>
       </c>
       <c r="D13">
-        <v>-0.0339075724248058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.053707153914299</v>
+      </c>
+      <c r="E13">
+        <v>-0.004706539151622335</v>
+      </c>
+      <c r="F13">
+        <v>0.001309282333656305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02600106142548957</v>
+        <v>0.02397140056983305</v>
       </c>
       <c r="C14">
-        <v>0.01211795984946895</v>
+        <v>0.0138138691723205</v>
       </c>
       <c r="D14">
-        <v>-0.02261015720796735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03277772682258859</v>
+      </c>
+      <c r="E14">
+        <v>0.01931620794938836</v>
+      </c>
+      <c r="F14">
+        <v>0.01259714179935833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.04004731247853291</v>
+        <v>0.03269701956038126</v>
       </c>
       <c r="C15">
-        <v>0.003807042302388609</v>
+        <v>0.004606213548039516</v>
       </c>
       <c r="D15">
-        <v>-0.01658986102464326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04459309555597168</v>
+      </c>
+      <c r="E15">
+        <v>0.005558532193222426</v>
+      </c>
+      <c r="F15">
+        <v>0.02428642170316237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0831964966224045</v>
+        <v>0.07427903710904869</v>
       </c>
       <c r="C16">
-        <v>-2.609604082466918e-05</v>
+        <v>0.0008785235213117554</v>
       </c>
       <c r="D16">
-        <v>-0.08229826155653198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.127403156580177</v>
+      </c>
+      <c r="E16">
+        <v>0.06124721064728966</v>
+      </c>
+      <c r="F16">
+        <v>0.02655042554844874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000619585894755902</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000165645593170531</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0008767410376543544</v>
+      </c>
+      <c r="E17">
+        <v>0.0003904941524929731</v>
+      </c>
+      <c r="F17">
+        <v>-0.0006617037010040413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0034014413651621</v>
+        <v>0.03492288428359583</v>
       </c>
       <c r="C18">
-        <v>0.0004874459027906302</v>
+        <v>-0.003115703994117997</v>
       </c>
       <c r="D18">
-        <v>0.00158490757784966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01643237109535847</v>
+      </c>
+      <c r="E18">
+        <v>-0.006158249066977342</v>
+      </c>
+      <c r="F18">
+        <v>-0.008756542925761911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06291472539412486</v>
+        <v>0.06149381968099044</v>
       </c>
       <c r="C20">
-        <v>0.001512912848196325</v>
+        <v>-0.0001807766325001159</v>
       </c>
       <c r="D20">
-        <v>-0.02990025622890757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07744537421188025</v>
+      </c>
+      <c r="E20">
+        <v>0.0558317568473205</v>
+      </c>
+      <c r="F20">
+        <v>0.02426631622486443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04399412252333477</v>
+        <v>0.04082982041817246</v>
       </c>
       <c r="C21">
-        <v>0.006721213831310435</v>
+        <v>0.006443046727731612</v>
       </c>
       <c r="D21">
-        <v>-0.007863632102865751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03740481373946566</v>
+      </c>
+      <c r="E21">
+        <v>-0.002865542885560912</v>
+      </c>
+      <c r="F21">
+        <v>-0.0252076708021118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02081166561615563</v>
+        <v>0.04302860528116963</v>
       </c>
       <c r="C22">
-        <v>0.0008136212185912198</v>
+        <v>0.0003771798148837642</v>
       </c>
       <c r="D22">
-        <v>0.02128624151173162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.00653681799871858</v>
+      </c>
+      <c r="E22">
+        <v>0.03518758772052465</v>
+      </c>
+      <c r="F22">
+        <v>-0.03776850077381052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02075841404406322</v>
+        <v>0.04300449538557306</v>
       </c>
       <c r="C23">
-        <v>0.0008105803682968651</v>
+        <v>0.0003688027287098225</v>
       </c>
       <c r="D23">
-        <v>0.02128374822860932</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006552430309613702</v>
+      </c>
+      <c r="E23">
+        <v>0.03537104558284907</v>
+      </c>
+      <c r="F23">
+        <v>-0.03773287634445896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.09177509964131576</v>
+        <v>0.07994332553183499</v>
       </c>
       <c r="C24">
-        <v>-0.0007195187176821611</v>
+        <v>0.001502467354103064</v>
       </c>
       <c r="D24">
-        <v>-0.09361480238625229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1215624283334026</v>
+      </c>
+      <c r="E24">
+        <v>0.04928639208077203</v>
+      </c>
+      <c r="F24">
+        <v>0.02738544696035682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09543282573881662</v>
+        <v>0.08516767089166796</v>
       </c>
       <c r="C25">
-        <v>0.002320118498265258</v>
+        <v>0.004228849421887545</v>
       </c>
       <c r="D25">
-        <v>-0.08855365023765245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1092914457981586</v>
+      </c>
+      <c r="E25">
+        <v>0.03282032371600951</v>
+      </c>
+      <c r="F25">
+        <v>0.02694927795060836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.06089545404131654</v>
+        <v>0.05847554689343935</v>
       </c>
       <c r="C26">
-        <v>0.01297720495885928</v>
+        <v>0.01419366893110761</v>
       </c>
       <c r="D26">
-        <v>-0.004116683137574719</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0407916124560135</v>
+      </c>
+      <c r="E26">
+        <v>0.02786631360610335</v>
+      </c>
+      <c r="F26">
+        <v>-0.00593080110374833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1200866084384642</v>
+        <v>0.1422161532654478</v>
       </c>
       <c r="C28">
-        <v>-0.003404963071372591</v>
+        <v>0.02208631385319434</v>
       </c>
       <c r="D28">
-        <v>0.2570373720563108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2616969766444747</v>
+      </c>
+      <c r="E28">
+        <v>-0.06762508141517266</v>
+      </c>
+      <c r="F28">
+        <v>0.009147355950662019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02642956193686374</v>
+        <v>0.02838711457081303</v>
       </c>
       <c r="C29">
-        <v>0.007445390764507016</v>
+        <v>0.008645547318916737</v>
       </c>
       <c r="D29">
-        <v>-0.01601742830155723</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03091097499784606</v>
+      </c>
+      <c r="E29">
+        <v>0.01368777844095542</v>
+      </c>
+      <c r="F29">
+        <v>-0.01357519472708778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09678067901972066</v>
+        <v>0.0595244473268073</v>
       </c>
       <c r="C30">
-        <v>-0.002359008006617652</v>
+        <v>0.0025308760538378</v>
       </c>
       <c r="D30">
-        <v>-0.06379201740997674</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0900090022782197</v>
+      </c>
+      <c r="E30">
+        <v>0.01627137816182605</v>
+      </c>
+      <c r="F30">
+        <v>0.07861272480215872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0412284669705186</v>
+        <v>0.05087048784373179</v>
       </c>
       <c r="C31">
-        <v>0.01347919255331278</v>
+        <v>0.01532183671305578</v>
       </c>
       <c r="D31">
-        <v>-0.01383324949198601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0247061664789972</v>
+      </c>
+      <c r="E31">
+        <v>0.02787471127751333</v>
+      </c>
+      <c r="F31">
+        <v>-0.001095658736742751</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05372664097426063</v>
+        <v>0.05139986638261802</v>
       </c>
       <c r="C32">
-        <v>-0.003842615961358977</v>
+        <v>-0.001839141574937725</v>
       </c>
       <c r="D32">
-        <v>-0.01423698895221709</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0351909519145258</v>
+      </c>
+      <c r="E32">
+        <v>0.03330727559448822</v>
+      </c>
+      <c r="F32">
+        <v>0.002907003191726001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09808278461253239</v>
+        <v>0.08922082172168504</v>
       </c>
       <c r="C33">
-        <v>0.004066962320276323</v>
+        <v>0.006682257356178224</v>
       </c>
       <c r="D33">
-        <v>-0.06190831124143125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1008405759163718</v>
+      </c>
+      <c r="E33">
+        <v>0.04449413735991191</v>
+      </c>
+      <c r="F33">
+        <v>0.03667963350966011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08410969536015205</v>
+        <v>0.06773373108495478</v>
       </c>
       <c r="C34">
-        <v>0.007090146755508469</v>
+        <v>0.009931298370674913</v>
       </c>
       <c r="D34">
-        <v>-0.08205617794663171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1091015062429927</v>
+      </c>
+      <c r="E34">
+        <v>0.03467675359902238</v>
+      </c>
+      <c r="F34">
+        <v>0.0332160133178376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02474845571354246</v>
+        <v>0.02468394708420314</v>
       </c>
       <c r="C35">
-        <v>0.0001585944853798368</v>
+        <v>0.002458004258300406</v>
       </c>
       <c r="D35">
-        <v>-0.001286015690835194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01111531965693389</v>
+      </c>
+      <c r="E35">
+        <v>0.01211809781573701</v>
+      </c>
+      <c r="F35">
+        <v>0.0003355004335378538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01708923034895689</v>
+        <v>0.02757480493085936</v>
       </c>
       <c r="C36">
-        <v>0.00852668358183385</v>
+        <v>0.006779633685635308</v>
       </c>
       <c r="D36">
-        <v>-0.02752123608125828</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03964899776583063</v>
+      </c>
+      <c r="E36">
+        <v>0.01634235825841259</v>
+      </c>
+      <c r="F36">
+        <v>0.01518335029507046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001067969613034296</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006116719068100869</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002248351029559019</v>
+      </c>
+      <c r="E37">
+        <v>-0.000577050657348793</v>
+      </c>
+      <c r="F37">
+        <v>0.0008847162826375912</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0001185640640574854</v>
+        <v>8.164104574611877e-05</v>
       </c>
       <c r="C38">
-        <v>2.9325780617163e-05</v>
+        <v>-4.897049326929614e-05</v>
       </c>
       <c r="D38">
-        <v>-0.001239206456906957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0005803876920943416</v>
+      </c>
+      <c r="E38">
+        <v>-0.0003183008205949395</v>
+      </c>
+      <c r="F38">
+        <v>0.000181027715424475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1321865329679064</v>
+        <v>0.1046101976722564</v>
       </c>
       <c r="C39">
-        <v>0.01057717733009235</v>
+        <v>0.01539056540677074</v>
       </c>
       <c r="D39">
-        <v>-0.127022370257729</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1547413639398509</v>
+      </c>
+      <c r="E39">
+        <v>0.05894904144457922</v>
+      </c>
+      <c r="F39">
+        <v>0.02967966319305788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02815891429775786</v>
+        <v>0.04140779174943343</v>
       </c>
       <c r="C40">
-        <v>0.007553063986599631</v>
+        <v>0.006897693776865266</v>
       </c>
       <c r="D40">
-        <v>0.01652608501241748</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03066011474412646</v>
+      </c>
+      <c r="E40">
+        <v>0.001887915702730049</v>
+      </c>
+      <c r="F40">
+        <v>-0.01637863424585868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02232601710151341</v>
+        <v>0.0283046103909808</v>
       </c>
       <c r="C41">
-        <v>0.005787767236481819</v>
+        <v>0.006948134375458121</v>
       </c>
       <c r="D41">
-        <v>0.002688124729361883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01027923041220999</v>
+      </c>
+      <c r="E41">
+        <v>0.0119057498209065</v>
+      </c>
+      <c r="F41">
+        <v>-0.005925835812040868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02572333123365517</v>
+        <v>0.04102476000473684</v>
       </c>
       <c r="C43">
-        <v>0.007708045321510834</v>
+        <v>0.007087639281089451</v>
       </c>
       <c r="D43">
-        <v>-0.005184575486607202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0188892463630238</v>
+      </c>
+      <c r="E43">
+        <v>0.02500629701128885</v>
+      </c>
+      <c r="F43">
+        <v>-0.01262048746232762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1013534691838218</v>
+        <v>0.07925233265656317</v>
       </c>
       <c r="C44">
-        <v>0.01590208326510033</v>
+        <v>0.01903691371338305</v>
       </c>
       <c r="D44">
-        <v>-0.06415323082959563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09794790290564703</v>
+      </c>
+      <c r="E44">
+        <v>0.06213933714675975</v>
+      </c>
+      <c r="F44">
+        <v>0.154807447449774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01159193308530488</v>
+        <v>0.02354285466037362</v>
       </c>
       <c r="C46">
-        <v>0.003991756038157169</v>
+        <v>0.003394085063322402</v>
       </c>
       <c r="D46">
-        <v>0.003377348982684932</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01277373721634621</v>
+      </c>
+      <c r="E46">
+        <v>0.02577861894479538</v>
+      </c>
+      <c r="F46">
+        <v>-0.00651645740236218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03636657269998481</v>
+        <v>0.05222705310085536</v>
       </c>
       <c r="C47">
-        <v>0.002216009550394206</v>
+        <v>0.003279510442782438</v>
       </c>
       <c r="D47">
-        <v>0.01264508197850475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01413245504376052</v>
+      </c>
+      <c r="E47">
+        <v>0.0230102177895998</v>
+      </c>
+      <c r="F47">
+        <v>-0.03167730418706416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.05076228166421419</v>
+        <v>0.05026247980192647</v>
       </c>
       <c r="C48">
-        <v>0.0009454357802311672</v>
+        <v>0.002101672001024305</v>
       </c>
       <c r="D48">
-        <v>-0.02933646326379947</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04996205297843067</v>
+      </c>
+      <c r="E48">
+        <v>-0.005300294703522876</v>
+      </c>
+      <c r="F48">
+        <v>0.009813025017543978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2085701980383071</v>
+        <v>0.2004209010307746</v>
       </c>
       <c r="C49">
-        <v>-0.001078772580207077</v>
+        <v>0.01882232420463306</v>
       </c>
       <c r="D49">
-        <v>0.000537403372021451</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005348068396233577</v>
+      </c>
+      <c r="E49">
+        <v>0.03241211170218914</v>
+      </c>
+      <c r="F49">
+        <v>0.03699512799922259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04230962977307695</v>
+        <v>0.05110619070449279</v>
       </c>
       <c r="C50">
-        <v>0.009560926526104709</v>
+        <v>0.01097283953325583</v>
       </c>
       <c r="D50">
-        <v>-0.01026312681317831</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02420956515498445</v>
+      </c>
+      <c r="E50">
+        <v>0.0296459673331661</v>
+      </c>
+      <c r="F50">
+        <v>0.009885378793780316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-3.22509091996973e-06</v>
+        <v>-7.439973767524636e-05</v>
       </c>
       <c r="C51">
-        <v>-4.059807090984009e-05</v>
+        <v>-2.221433449104306e-05</v>
       </c>
       <c r="D51">
-        <v>3.987046899474585e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>4.865065676476538e-05</v>
+      </c>
+      <c r="E51">
+        <v>8.628616757348877e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.000258637797004245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1571313557387572</v>
+        <v>0.1473505628007812</v>
       </c>
       <c r="C52">
-        <v>0.001906019068465673</v>
+        <v>0.01684291038875555</v>
       </c>
       <c r="D52">
-        <v>-0.04479312111765531</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0427859253928862</v>
+      </c>
+      <c r="E52">
+        <v>0.01936616162625671</v>
+      </c>
+      <c r="F52">
+        <v>0.04376358639455265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1724113962026659</v>
+        <v>0.1714741271588487</v>
       </c>
       <c r="C53">
-        <v>0.001163867637688961</v>
+        <v>0.01959945325996843</v>
       </c>
       <c r="D53">
-        <v>-0.01018510320518688</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00563958656785083</v>
+      </c>
+      <c r="E53">
+        <v>0.02861455042863072</v>
+      </c>
+      <c r="F53">
+        <v>0.07422756924105826</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02225422917296941</v>
+        <v>0.02129733802574683</v>
       </c>
       <c r="C54">
-        <v>0.009836241707583284</v>
+        <v>0.01139738459349131</v>
       </c>
       <c r="D54">
-        <v>-0.02014138299886389</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03429798077884347</v>
+      </c>
+      <c r="E54">
+        <v>0.02126759654256584</v>
+      </c>
+      <c r="F54">
+        <v>-0.005350964305847524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1068164228127912</v>
+        <v>0.1140258557032421</v>
       </c>
       <c r="C55">
-        <v>0.00540731836928521</v>
+        <v>0.01708895424805838</v>
       </c>
       <c r="D55">
-        <v>-0.003440753188517704</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008323526117839916</v>
+      </c>
+      <c r="E55">
+        <v>0.02409053147165449</v>
+      </c>
+      <c r="F55">
+        <v>0.0476467464157783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1755081228494373</v>
+        <v>0.1767198502993662</v>
       </c>
       <c r="C56">
-        <v>-0.001351503001292148</v>
+        <v>0.01737209266193943</v>
       </c>
       <c r="D56">
-        <v>0.01094987624045709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001172048353718057</v>
+      </c>
+      <c r="E56">
+        <v>0.03386239430435186</v>
+      </c>
+      <c r="F56">
+        <v>0.0524761638508958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03605859366990797</v>
+        <v>0.04471777450260894</v>
       </c>
       <c r="C58">
-        <v>0.00398119147404076</v>
+        <v>-0.0007720711344987457</v>
       </c>
       <c r="D58">
-        <v>-0.04682385187811274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07132068496114642</v>
+      </c>
+      <c r="E58">
+        <v>0.03022254082517347</v>
+      </c>
+      <c r="F58">
+        <v>-0.03805562380571567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1485376492487988</v>
+        <v>0.1675845357962485</v>
       </c>
       <c r="C59">
-        <v>-0.004066586409296663</v>
+        <v>0.0220265406465976</v>
       </c>
       <c r="D59">
-        <v>0.2310062517058124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2167063502383562</v>
+      </c>
+      <c r="E59">
+        <v>-0.04620358283909719</v>
+      </c>
+      <c r="F59">
+        <v>-0.03500901697456488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2525745355544766</v>
+        <v>0.2318444629406854</v>
       </c>
       <c r="C60">
-        <v>-0.02550350920777499</v>
+        <v>-0.002398812160703512</v>
       </c>
       <c r="D60">
-        <v>-0.05148742886418772</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0421396509063539</v>
+      </c>
+      <c r="E60">
+        <v>0.01045871267366393</v>
+      </c>
+      <c r="F60">
+        <v>-0.005614045881299341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1082673067579795</v>
+        <v>0.08043132863495131</v>
       </c>
       <c r="C61">
-        <v>0.005932074189613959</v>
+        <v>0.01117875206630931</v>
       </c>
       <c r="D61">
-        <v>-0.08511442609775786</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.117669272664117</v>
+      </c>
+      <c r="E61">
+        <v>0.03958033965361526</v>
+      </c>
+      <c r="F61">
+        <v>0.01252202972096396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1750250154428435</v>
+        <v>0.1698712127183458</v>
       </c>
       <c r="C62">
-        <v>0.002054105379592349</v>
+        <v>0.02055742023844796</v>
       </c>
       <c r="D62">
-        <v>0.009327727897885768</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005817863721939918</v>
+      </c>
+      <c r="E62">
+        <v>0.033792628138122</v>
+      </c>
+      <c r="F62">
+        <v>0.03600229031029072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.05061813355733044</v>
+        <v>0.04577909154804444</v>
       </c>
       <c r="C63">
-        <v>0.001174288313364915</v>
+        <v>0.001672800725368622</v>
       </c>
       <c r="D63">
-        <v>-0.03364614655987209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05827864713934303</v>
+      </c>
+      <c r="E63">
+        <v>0.02245543793240387</v>
+      </c>
+      <c r="F63">
+        <v>0.003148056876164052</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1009342191933035</v>
+        <v>0.1095784453784401</v>
       </c>
       <c r="C64">
-        <v>0.006858115394718894</v>
+        <v>0.01102859442488468</v>
       </c>
       <c r="D64">
-        <v>-0.009562287421974514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0443408693817613</v>
+      </c>
+      <c r="E64">
+        <v>0.02383499604932299</v>
+      </c>
+      <c r="F64">
+        <v>0.02506239500942709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1298665506120201</v>
+        <v>0.1496802775747987</v>
       </c>
       <c r="C65">
-        <v>0.02072668054086137</v>
+        <v>0.03360748011865036</v>
       </c>
       <c r="D65">
-        <v>0.02323498708225391</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0429589962737424</v>
+      </c>
+      <c r="E65">
+        <v>0.005851348470582488</v>
+      </c>
+      <c r="F65">
+        <v>0.04096301950497256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1588892621940509</v>
+        <v>0.1238365869618383</v>
       </c>
       <c r="C66">
-        <v>0.006098714529852266</v>
+        <v>0.01330786845192372</v>
       </c>
       <c r="D66">
-        <v>-0.1201251011234179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1427315307599539</v>
+      </c>
+      <c r="E66">
+        <v>0.06552861972627848</v>
+      </c>
+      <c r="F66">
+        <v>0.03317501268479166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06205921122238835</v>
+        <v>0.05804446990707206</v>
       </c>
       <c r="C67">
-        <v>-0.0006057868721483328</v>
+        <v>0.002847672874136107</v>
       </c>
       <c r="D67">
-        <v>-0.03520605514164136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05646534729491986</v>
+      </c>
+      <c r="E67">
+        <v>0.01652348575726638</v>
+      </c>
+      <c r="F67">
+        <v>-0.0315099414524241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.09770905679714527</v>
+        <v>0.1161932998246089</v>
       </c>
       <c r="C68">
-        <v>0.008730161730988792</v>
+        <v>0.03261870711260061</v>
       </c>
       <c r="D68">
-        <v>0.2385682298589529</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.260514371574031</v>
+      </c>
+      <c r="E68">
+        <v>-0.0867823736417823</v>
+      </c>
+      <c r="F68">
+        <v>0.005351812930719512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03453835774998547</v>
+        <v>0.03967149168288596</v>
       </c>
       <c r="C69">
-        <v>-0.001323390026343098</v>
+        <v>0.001168939567342165</v>
       </c>
       <c r="D69">
-        <v>0.0003790787768531537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008038397966421598</v>
+      </c>
+      <c r="E69">
+        <v>0.02282594650033819</v>
+      </c>
+      <c r="F69">
+        <v>0.000976152385871346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.04704208304765076</v>
+        <v>0.06682666192142016</v>
       </c>
       <c r="C70">
-        <v>-0.0259134679267817</v>
+        <v>-0.02753620117732419</v>
       </c>
       <c r="D70">
-        <v>0.04548896479607469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02415417702351082</v>
+      </c>
+      <c r="E70">
+        <v>-0.03480507665930207</v>
+      </c>
+      <c r="F70">
+        <v>-0.1828041633103396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1129590665003144</v>
+        <v>0.136077213112487</v>
       </c>
       <c r="C71">
-        <v>0.01144534553544626</v>
+        <v>0.03691413069924064</v>
       </c>
       <c r="D71">
-        <v>0.2572450067889967</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2724375984064982</v>
+      </c>
+      <c r="E71">
+        <v>-0.09758474379446803</v>
+      </c>
+      <c r="F71">
+        <v>0.01045610449405492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1347433103890777</v>
+        <v>0.1424652960444409</v>
       </c>
       <c r="C72">
-        <v>0.01357708853913209</v>
+        <v>0.02681450113391573</v>
       </c>
       <c r="D72">
-        <v>0.01516700138310904</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002491611118591345</v>
+      </c>
+      <c r="E72">
+        <v>0.03681064741622401</v>
+      </c>
+      <c r="F72">
+        <v>0.03150343038131134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2004269932843062</v>
+        <v>0.2032921094087152</v>
       </c>
       <c r="C73">
-        <v>-0.005841112587911861</v>
+        <v>0.01257719460451311</v>
       </c>
       <c r="D73">
-        <v>0.004033465828947291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01798165311608007</v>
+      </c>
+      <c r="E73">
+        <v>0.06343878890387186</v>
+      </c>
+      <c r="F73">
+        <v>0.03697243688314935</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09867267260436308</v>
+        <v>0.09489686152557374</v>
       </c>
       <c r="C74">
-        <v>0.002212655810158709</v>
+        <v>0.01340506074745404</v>
       </c>
       <c r="D74">
-        <v>-0.01645227843471184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01741601412711389</v>
+      </c>
+      <c r="E74">
+        <v>0.04473419837478478</v>
+      </c>
+      <c r="F74">
+        <v>0.0574712005807924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1312904027917018</v>
+        <v>0.1274855243351449</v>
       </c>
       <c r="C75">
-        <v>0.01581875623116387</v>
+        <v>0.028075501230865</v>
       </c>
       <c r="D75">
-        <v>-0.01435118128595523</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03038564434883854</v>
+      </c>
+      <c r="E75">
+        <v>0.05763760435822531</v>
+      </c>
+      <c r="F75">
+        <v>0.02231611215462758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08189236408507833</v>
+        <v>0.08739501883331272</v>
       </c>
       <c r="C77">
-        <v>0.008252376221739608</v>
+        <v>0.008168219812670616</v>
       </c>
       <c r="D77">
-        <v>-0.09069729110037057</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1114780082339194</v>
+      </c>
+      <c r="E77">
+        <v>0.03847906802360509</v>
+      </c>
+      <c r="F77">
+        <v>0.03459915520589905</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1168233024534999</v>
+        <v>0.1002048757999967</v>
       </c>
       <c r="C78">
-        <v>0.035568234480961</v>
+        <v>0.03927300784645455</v>
       </c>
       <c r="D78">
-        <v>-0.06743538363104239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1145990989560515</v>
+      </c>
+      <c r="E78">
+        <v>0.07415643083053025</v>
+      </c>
+      <c r="F78">
+        <v>0.0471758140521538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1612386071636538</v>
+        <v>0.164146395301912</v>
       </c>
       <c r="C79">
-        <v>0.007505267507527562</v>
+        <v>0.02289987049921818</v>
       </c>
       <c r="D79">
-        <v>0.00976196619168257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01392668340536097</v>
+      </c>
+      <c r="E79">
+        <v>0.04567243119743512</v>
+      </c>
+      <c r="F79">
+        <v>0.01234633871927005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09126076631863636</v>
+        <v>0.08244661950552309</v>
       </c>
       <c r="C80">
-        <v>-0.007348777764475747</v>
+        <v>-0.0009438943082164329</v>
       </c>
       <c r="D80">
-        <v>-0.04365175453817408</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05635738894960184</v>
+      </c>
+      <c r="E80">
+        <v>0.03574164424323129</v>
+      </c>
+      <c r="F80">
+        <v>-0.02254625543239246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1191192264260032</v>
+        <v>0.1198584052112645</v>
       </c>
       <c r="C81">
-        <v>0.02047394471790152</v>
+        <v>0.03193496862756739</v>
       </c>
       <c r="D81">
-        <v>-0.02855696238519438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01448531995608082</v>
+      </c>
+      <c r="E81">
+        <v>0.05610538516346913</v>
+      </c>
+      <c r="F81">
+        <v>0.01797905734335404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1681059955597951</v>
+        <v>0.1661163687885854</v>
       </c>
       <c r="C82">
-        <v>0.006963714524286888</v>
+        <v>0.02502505619142662</v>
       </c>
       <c r="D82">
-        <v>-0.0155754373775841</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003551742939293448</v>
+      </c>
+      <c r="E82">
+        <v>0.0263802622801779</v>
+      </c>
+      <c r="F82">
+        <v>0.08201921378839756</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06661867429747897</v>
+        <v>0.05895509194738427</v>
       </c>
       <c r="C83">
-        <v>0.0002398726286813279</v>
+        <v>0.002688913405097403</v>
       </c>
       <c r="D83">
-        <v>-0.03843278888912784</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05160290272307401</v>
+      </c>
+      <c r="E83">
+        <v>0.002941511319710768</v>
+      </c>
+      <c r="F83">
+        <v>-0.03048096027203671</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07422891169675688</v>
+        <v>0.05916920932788398</v>
       </c>
       <c r="C84">
-        <v>0.007689672147732134</v>
+        <v>0.01101957535322159</v>
       </c>
       <c r="D84">
-        <v>-0.0463992568429639</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06403193736180327</v>
+      </c>
+      <c r="E84">
+        <v>0.007213407384868954</v>
+      </c>
+      <c r="F84">
+        <v>0.005786086860914495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1337351155578884</v>
+        <v>0.1355610891212899</v>
       </c>
       <c r="C85">
-        <v>0.01506252974581631</v>
+        <v>0.0280244250548739</v>
       </c>
       <c r="D85">
-        <v>-0.00411456836215867</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.00954364005973404</v>
+      </c>
+      <c r="E85">
+        <v>0.03561268416008499</v>
+      </c>
+      <c r="F85">
+        <v>0.04849128177099868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.07026772981769185</v>
+        <v>0.09478675346393918</v>
       </c>
       <c r="C86">
-        <v>-0.003453785057873103</v>
+        <v>-0.00536202247919655</v>
       </c>
       <c r="D86">
-        <v>0.07428224593028807</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03983530592589551</v>
+      </c>
+      <c r="E86">
+        <v>0.2223288842745727</v>
+      </c>
+      <c r="F86">
+        <v>-0.9058142713871532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1238447511856694</v>
+        <v>0.09449412880286333</v>
       </c>
       <c r="C87">
-        <v>0.01401326235394939</v>
+        <v>0.01936264373841209</v>
       </c>
       <c r="D87">
-        <v>-0.07075051918452378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09379354887912621</v>
+      </c>
+      <c r="E87">
+        <v>-0.05346735438234207</v>
+      </c>
+      <c r="F87">
+        <v>0.04709592401961981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05717083357273032</v>
+        <v>0.06070380560697506</v>
       </c>
       <c r="C88">
-        <v>0.001192685022356454</v>
+        <v>0.002090884374695339</v>
       </c>
       <c r="D88">
-        <v>-0.02477711183244006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04941362823239247</v>
+      </c>
+      <c r="E88">
+        <v>0.0241159980646671</v>
+      </c>
+      <c r="F88">
+        <v>0.01360763257905102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1174592867235028</v>
+        <v>0.1307064335704705</v>
       </c>
       <c r="C89">
-        <v>-0.01112511553962605</v>
+        <v>0.01356719139264522</v>
       </c>
       <c r="D89">
-        <v>0.2729364242925318</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2472277088304012</v>
+      </c>
+      <c r="E89">
+        <v>-0.09019697839150366</v>
+      </c>
+      <c r="F89">
+        <v>-0.00771787984174806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1198799198913439</v>
+        <v>0.1509074428261083</v>
       </c>
       <c r="C90">
-        <v>0.009002195561407154</v>
+        <v>0.03353954119770804</v>
       </c>
       <c r="D90">
-        <v>0.2615120548871083</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2706927277346548</v>
+      </c>
+      <c r="E90">
+        <v>-0.1131893638765411</v>
+      </c>
+      <c r="F90">
+        <v>-0.007011704643989894</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1130036643972271</v>
+        <v>0.1208542629522188</v>
       </c>
       <c r="C91">
-        <v>0.006229531943133746</v>
+        <v>0.01961786598747566</v>
       </c>
       <c r="D91">
-        <v>0.02448434649941645</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01489817139477579</v>
+      </c>
+      <c r="E91">
+        <v>0.05536329373445192</v>
+      </c>
+      <c r="F91">
+        <v>-0.001250327430326599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1386105329113858</v>
+        <v>0.1482623914023799</v>
       </c>
       <c r="C92">
-        <v>-0.006032066787438919</v>
+        <v>0.02458209020059582</v>
       </c>
       <c r="D92">
-        <v>0.2960323066979425</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2914823178950907</v>
+      </c>
+      <c r="E92">
+        <v>-0.1016081315593882</v>
+      </c>
+      <c r="F92">
+        <v>-0.01218837898507537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1218399457357166</v>
+        <v>0.1518940318997975</v>
       </c>
       <c r="C93">
-        <v>0.003821723029583677</v>
+        <v>0.02885278468222578</v>
       </c>
       <c r="D93">
-        <v>0.2596378541695796</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2675487469880079</v>
+      </c>
+      <c r="E93">
+        <v>-0.07950960072807015</v>
+      </c>
+      <c r="F93">
+        <v>0.003449625292691209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1345096493295766</v>
+        <v>0.1282778986337189</v>
       </c>
       <c r="C94">
-        <v>0.01176866546522014</v>
+        <v>0.02446177792202443</v>
       </c>
       <c r="D94">
-        <v>-0.03346816244343105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04203207056810144</v>
+      </c>
+      <c r="E94">
+        <v>0.05689097658365393</v>
+      </c>
+      <c r="F94">
+        <v>0.03632806290565407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.120992821740859</v>
+        <v>0.1269241259134636</v>
       </c>
       <c r="C95">
-        <v>-0.0003153767316953198</v>
+        <v>0.003154284086173029</v>
       </c>
       <c r="D95">
-        <v>-0.06452273905966134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09454245019915689</v>
+      </c>
+      <c r="E95">
+        <v>0.04797618319449204</v>
+      </c>
+      <c r="F95">
+        <v>-0.004656924012233447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01465665410636096</v>
+        <v>0.1081705990329268</v>
       </c>
       <c r="C96">
-        <v>-0.9945708018385135</v>
+        <v>-0.9872150269612031</v>
       </c>
       <c r="D96">
-        <v>0.01313345846837449</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05115417685429709</v>
+      </c>
+      <c r="E96">
+        <v>0.05356176317145124</v>
+      </c>
+      <c r="F96">
+        <v>0.04216510258989022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1920136325445991</v>
+        <v>0.1923944729277346</v>
       </c>
       <c r="C97">
-        <v>-0.02566389630383</v>
+        <v>-0.007072431353632225</v>
       </c>
       <c r="D97">
-        <v>0.05809447159943474</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01805878502171996</v>
+      </c>
+      <c r="E97">
+        <v>0.02264642988258208</v>
+      </c>
+      <c r="F97">
+        <v>-0.09588008692428203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2069927147914013</v>
+        <v>0.2063505049749211</v>
       </c>
       <c r="C98">
-        <v>-0.009929566458505358</v>
+        <v>0.00717635607210253</v>
       </c>
       <c r="D98">
-        <v>0.01767702864400439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01297813535683266</v>
+      </c>
+      <c r="E98">
+        <v>-0.07791694585694393</v>
+      </c>
+      <c r="F98">
+        <v>-0.09467616836324254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05632514043540508</v>
+        <v>0.05423362608156852</v>
       </c>
       <c r="C99">
-        <v>-0.007708634816520857</v>
+        <v>-0.004755008665877867</v>
       </c>
       <c r="D99">
-        <v>-0.01865257722992434</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04024201840623802</v>
+      </c>
+      <c r="E99">
+        <v>0.02252917419657068</v>
+      </c>
+      <c r="F99">
+        <v>0.002057704197807723</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1556356235283937</v>
+        <v>0.1262530853028839</v>
       </c>
       <c r="C100">
-        <v>-0.04675207058105579</v>
+        <v>-0.05408181901788893</v>
       </c>
       <c r="D100">
-        <v>-0.5229531396787634</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3461955953795661</v>
+      </c>
+      <c r="E100">
+        <v>-0.8873805725365109</v>
+      </c>
+      <c r="F100">
+        <v>-0.1522261252612989</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02615167949504135</v>
+        <v>0.02834848549316714</v>
       </c>
       <c r="C101">
-        <v>0.007439084632514407</v>
+        <v>0.008672341152978583</v>
       </c>
       <c r="D101">
-        <v>-0.0152113144752715</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03051460806846674</v>
+      </c>
+      <c r="E101">
+        <v>0.01307782733084431</v>
+      </c>
+      <c r="F101">
+        <v>-0.01476897000838482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
